--- a/data/trans_bre/P1417-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1417-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.86248533791398</v>
+        <v>1.849330244121232</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.199990923890377</v>
+        <v>2.238228577353847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.602592947516865</v>
+        <v>1.709793485631169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.850220293961257</v>
+        <v>3.709413200924325</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.886354533456034</v>
+        <v>1.8371014277315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.102576546896247</v>
+        <v>2.378538570130744</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.275316944967587</v>
+        <v>1.687800690112865</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.009000263790125</v>
+        <v>1.07038631912186</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.380124981214877</v>
+        <v>4.482019632526088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.682586454451726</v>
+        <v>4.666800561316461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.745103876049158</v>
+        <v>3.869794886905741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.463242799415427</v>
+        <v>8.315393910257541</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>34.73713933586259</v>
+        <v>31.832660771586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17.82228118107683</v>
+        <v>20.02649797658676</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7.11064268792166</v>
+        <v>6.132254910747197</v>
       </c>
     </row>
     <row r="7">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.08064210466502691</v>
+        <v>-0.08593291838198525</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8820972199807104</v>
+        <v>0.9121028464477037</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1450747592061878</v>
+        <v>0.1547951847532919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.447427749589267</v>
+        <v>1.429043400769399</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3292545904330312</v>
+        <v>-0.3224548628534912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.947735972237714</v>
+        <v>1.176946516204671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01312821881980224</v>
+        <v>0.05581256506241042</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7371375348866472</v>
+        <v>0.712378457042386</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.597278283081881</v>
+        <v>1.550935410259124</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.642963155971204</v>
+        <v>2.754962446351914</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.011208773919301</v>
+        <v>1.98910357347263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.740957798899518</v>
+        <v>3.712501789837062</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.770803038309769</v>
+        <v>6.676274215313912</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>23.42741935948044</v>
+        <v>26.67703614735149</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.396552461977348</v>
+        <v>5.581855638476086</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.869393855877759</v>
+        <v>3.778232502045963</v>
       </c>
     </row>
     <row r="10">
@@ -847,7 +847,7 @@
         <v>3.848479530115674</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2.569609266818389</v>
+        <v>2.56960926681839</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.29117923607079</v>
+        <v>-0.2384198843321961</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4764665381559208</v>
+        <v>0.4793330443413023</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6762599211341004</v>
+        <v>0.7084136691958353</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.270284904219242</v>
+        <v>1.237330658110025</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6245081250015662</v>
+        <v>-0.6412032439306983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1729884466543044</v>
+        <v>0.1560229174117325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5118176462912012</v>
+        <v>0.5024454185083908</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.764547888907197</v>
+        <v>0.8085675940047179</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.115127957326275</v>
+        <v>1.045953922892373</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.751253425705309</v>
+        <v>2.842691809748794</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.126696373099259</v>
+        <v>3.18361658693694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.396634243448731</v>
+        <v>3.472437383842903</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.347870757834389</v>
+        <v>6.317672020207343</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>8.579701735976071</v>
+        <v>8.119486528468517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>18.56719052053944</v>
+        <v>19.60011775401987</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.800216501470397</v>
+        <v>5.89001342931458</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>1.789390445569646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.434712736309961</v>
+        <v>3.434712736309963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>3.323400129332498</v>
@@ -947,7 +947,7 @@
         <v>2.9780181555461</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>3.278863305049309</v>
+        <v>3.278863305049311</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07950598362957835</v>
+        <v>-0.007092977691455728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.005018543806912</v>
+        <v>1.136856821982576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3000331315096342</v>
+        <v>0.412256714705807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.257415215277335</v>
+        <v>2.081966632340989</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4758375261854876</v>
+        <v>0.6262368456563131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1828694529108835</v>
+        <v>-0.03237930847507627</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.247408863349964</v>
+        <v>1.15945255772007</v>
       </c>
     </row>
     <row r="15">
@@ -990,24 +990,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.470299118430971</v>
+        <v>3.43702844247533</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.630496973993939</v>
+        <v>4.852268279667414</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.552298066969358</v>
+        <v>3.687581080715343</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.966916211364198</v>
+        <v>4.840197690960849</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>16.15636016153133</v>
+        <v>18.79593093089181</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.71497112180387</v>
+        <v>7.533766112411228</v>
       </c>
     </row>
     <row r="16">
@@ -1054,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7999101691143817</v>
+        <v>0.7869355199802976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.67157322928442</v>
+        <v>1.709122762377564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.353953735956836</v>
+        <v>1.373174614449959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.547685326005304</v>
+        <v>2.681135956917346</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.223711538541277</v>
+        <v>1.187019001046305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>2.453047696208231</v>
+        <v>2.576753117958499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.66214358658305</v>
+        <v>1.641508027807656</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.655803218500556</v>
+        <v>1.656553069464942</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.849458661368929</v>
+        <v>1.816297099779944</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.936378482856817</v>
+        <v>2.905343278384151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.567964921906503</v>
+        <v>2.596655009235325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.982690416680811</v>
+        <v>4.038625613705596</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7.76052536153867</v>
+        <v>7.603099707562465</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9.587907902772429</v>
+        <v>10.14521821174387</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6.432362253844373</v>
+        <v>6.306840624818949</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.890720695483458</v>
+        <v>3.956887616218245</v>
       </c>
     </row>
     <row r="19">
